--- a/CHAPTER+-03+RAND+BETWEEN+(EX).xlsx
+++ b/CHAPTER+-03+RAND+BETWEEN+(EX).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UDAMY - EXCEL ADVANCE FORMULAS AND FUNCTIONS\ALL CHAPTER WITHOUT ANSWERS\CHAPTER-03 -WORKDAY ,REND , RENDBETWEEN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\STUDENT\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D058765C-70AB-4F32-8A9F-D942AF829B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" tabRatio="865"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" tabRatio="865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAND BETWEEN (EX) " sheetId="30" r:id="rId1"/>
@@ -48,7 +49,7 @@
     <definedName name="x" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="xxxxxxxxxxxxxxxxxxx" hidden="1">{"AllDetail",#N/A,FALSE,"Research Budget";"1stQuarter",#N/A,FALSE,"Research Budget";"2nd Quarter",#N/A,FALSE,"Research Budget";"Summary",#N/A,FALSE,"Research Budget"}</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,11 +139,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -248,15 +249,15 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -275,22 +276,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="4"/>
-    <cellStyle name="Comma 3" xfId="5"/>
-    <cellStyle name="Comma 3 2" xfId="9"/>
-    <cellStyle name="Currency 2" xfId="6"/>
-    <cellStyle name="Currency 2 2" xfId="7"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Currency 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Currency 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1715,7 +1716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1764,7 +1765,10 @@
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8">
+        <f ca="1">RANDBETWEEN(40000,500000)</f>
+        <v>489401</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -1776,7 +1780,10 @@
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D12" ca="1" si="0">RANDBETWEEN(40000,500000)</f>
+        <v>178086</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -1788,7 +1795,10 @@
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>427423</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1800,7 +1810,10 @@
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>73624</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -1812,7 +1825,10 @@
       <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>221833</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -1824,7 +1840,10 @@
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>379035</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -1836,7 +1855,10 @@
       <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>375155</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -1848,7 +1870,10 @@
       <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>217782</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -1860,7 +1885,10 @@
       <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>86259</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1872,7 +1900,10 @@
       <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>481735</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13"/>
